--- a/Resultados/Mercado mundial - Frambuesas.xlsx
+++ b/Resultados/Mercado mundial - Frambuesas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Russian Federation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Serbia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Poland" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="United States of America" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Serbia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polonia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Russian Federation'!$B$12:$B$73</f>
+              <f>'Federación de Rusia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Russian Federation'!$C$12:$C$73</f>
+              <f>'Federación de Rusia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Serbia'!$B$12:$B$73</f>
+              <f>'Serbia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Serbia'!$C$12:$C$73</f>
+              <f>'Serbia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Poland'!$B$12:$B$73</f>
+              <f>'Polonia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Poland'!$C$12:$C$73</f>
+              <f>'Polonia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>121056</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7.7731</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>940979.29</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7.7731</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>479881.49</v>
@@ -2160,10 +2160,10 @@
         <v>120594</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>7.9588</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>959776.75</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>7.9588</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>522325.71</v>
@@ -2182,10 +2182,10 @@
         <v>118286</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7.787100000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>921105.83</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7.787100000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>482262.35</v>
@@ -2204,10 +2204,10 @@
         <v>124333</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>7.5177</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>934700.27</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>7.5177</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>440929.1</v>
@@ -2226,10 +2226,10 @@
         <v>132430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.6287</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>877834.87</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.6287</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>404232.67</v>
@@ -2248,10 +2248,10 @@
         <v>128656</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.993399999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>899742.45</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.993399999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>378661.83</v>
@@ -2270,10 +2270,10 @@
         <v>120079</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.8148</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>818311.6</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.8148</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>328204.57</v>
@@ -2292,10 +2292,10 @@
         <v>116399</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.208399999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>839046.4</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.208399999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>277624.42</v>
@@ -2314,10 +2314,10 @@
         <v>103078</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.6597</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>686471.64</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.6597</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>292536.81</v>
@@ -2336,10 +2336,10 @@
         <v>94636</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.7524</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>639022.26</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.7524</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>233145.07</v>
@@ -2358,10 +2358,10 @@
         <v>93995</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.3568</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>597504.29</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.3568</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2376,10 +2376,10 @@
         <v>103525</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.5788</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>577551.27</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.5788</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2394,10 +2394,10 @@
         <v>107958</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.620100000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>606734.95</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.620100000000001</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2412,10 +2412,10 @@
         <v>107127</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.9331</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>528469.51</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.9331</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         <v>98099</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.7495</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>564022.1899999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.7495</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2448,10 +2448,10 @@
         <v>98645</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.356199999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>528362.13</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.356199999999999</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
         <v>106041</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4.9125</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>520927.51</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>4.9125</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         <v>102897</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.2215</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>537277.98</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.2215</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         <v>100531</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.352300000000001</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>538072.23</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.352300000000001</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         <v>97714</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.473</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>534792.05</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.473</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2538,10 +2538,10 @@
         <v>97737</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.7622</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>465447.46</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4.7622</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>97366</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5.057300000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>492411.11</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5.057300000000001</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2574,10 +2574,10 @@
         <v>92453</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.8709</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>450333.23</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.8709</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         <v>83395</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5.0667</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>422536.56</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5.0667</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
         <v>80342</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.1852</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>416583.49</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5.1852</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2628,10 +2628,10 @@
         <v>74591</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.055899999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>377124.11</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5.055899999999999</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2646,10 +2646,10 @@
         <v>71716</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.8172</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>345472.31</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.8172</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2664,10 +2664,10 @@
         <v>72401</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4.7481</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>343767.26</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4.7481</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2682,10 +2682,10 @@
         <v>70355</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>4.8578</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>341773.35</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>4.8578</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2700,10 +2700,10 @@
         <v>67276</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.980600000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>335075.12</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4.980600000000001</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2718,10 +2718,10 @@
         <v>69344</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4.7402</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>328705.25</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4.7402</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         <v>70045</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4.7867</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>335287.06</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4.7867</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         <v>68919</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4.1422</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>285473.3</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4.1422</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         <v>66101</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.5957</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>303780</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.5957</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2790,10 +2790,10 @@
         <v>76521</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.2039</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>398209</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5.2039</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         <v>73770</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.176699999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>381882</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.176699999999999</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         <v>72530</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.5148</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>327458</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.5148</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2844,10 +2844,10 @@
         <v>66716</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.6738</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>311815</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.6738</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         <v>65215</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.8137</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>313925</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.8137</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         <v>44180</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6.6356</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>293161</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6.6356</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2898,10 +2898,10 @@
         <v>43675</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6.3486</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>277271</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6.3486</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2916,10 +2916,10 @@
         <v>42155</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6.2757</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>264551</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6.2757</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         <v>42668</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>263006</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6.164</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         <v>41117</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.635800000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>231726</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5.635800000000001</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         <v>40641</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.7456</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>233508</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.7456</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
         <v>39385</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.8157</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>229052</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.8157</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3006,10 +3006,10 @@
         <v>38452</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.6589</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>217597</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.6589</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3024,10 +3024,10 @@
         <v>39018</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.4472</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>212537</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.4472</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3042,10 +3042,10 @@
         <v>40659</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.3297</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>257358</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.3297</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         <v>37160</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.5385</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>205809</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.5385</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         <v>40325</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6.232600000000001</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>251329</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6.232600000000001</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3096,10 +3096,10 @@
         <v>36667</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.5172</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>202299</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.5172</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3114,10 +3114,10 @@
         <v>36644</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5.4155</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>198446</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5.4155</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3132,10 +3132,10 @@
         <v>36800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.6857</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>209232</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.6857</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         <v>29572</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6.1401</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>181575</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6.1401</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         <v>28372</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.8583</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>166213</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.8583</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3186,10 +3186,10 @@
         <v>28964</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6.3056</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>182634</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6.3056</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         <v>28801</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6.183</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>178076</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6.183</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         <v>29242</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5.7399</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>167846</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5.7399</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         <v>24139</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7.1272</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>172044</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7.1272</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         <v>22171</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.118600000000001</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>157826</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.118600000000001</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3271,10 +3271,10 @@
         <v>21488</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>141177</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.57</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3288,10 +3288,10 @@
         <v>21746</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.1673</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>134115</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.1673</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3574,8 +3574,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3684,7 +3684,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3712,7 +3712,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3726,7 +3726,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3740,7 +3740,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3768,7 +3768,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ucrania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3782,7 +3782,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3796,7 +3796,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3904,7 +3904,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4003,7 +4003,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4017,7 +4017,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4031,7 +4031,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4059,7 +4059,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4073,7 +4073,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4087,7 +4087,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4101,7 +4101,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4129,7 +4129,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4325,8 +4325,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4421,7 +4421,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4435,7 +4435,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4449,7 +4449,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4463,7 +4463,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4477,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4491,7 +4491,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4505,7 +4505,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4519,7 +4519,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4547,7 +4547,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4720,7 +4720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4799,10 +4799,10 @@
         <v>31006</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>7.0741</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>219338.33</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>7.0741</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1608.29</v>
@@ -4821,10 +4821,10 @@
         <v>30011</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>7.0741</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>212300</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>7.0741</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2479.77</v>
@@ -4843,10 +4843,10 @@
         <v>27933</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>7.0741</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>197600</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>7.0741</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2580.54</v>
@@ -4865,10 +4865,10 @@
         <v>32537</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5.5936</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>182000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5.5936</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2529.64</v>
@@ -4887,10 +4887,10 @@
         <v>30017</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.7967</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>174000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.7967</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3312.2</v>
@@ -4909,10 +4909,10 @@
         <v>26226</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.322</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>165800</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.322</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3553.5</v>
@@ -4931,10 +4931,10 @@
         <v>18848</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7.0672</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>133200</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7.0672</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1962.96</v>
@@ -4953,10 +4953,10 @@
         <v>19366</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.8333</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>151700</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.8333</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1124.69</v>
@@ -4975,10 +4975,10 @@
         <v>16400</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.4024</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>137800</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.4024</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>984.55</v>
@@ -4995,10 +4995,10 @@
         <v>16600</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.674700000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>144000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.674700000000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1426</v>
@@ -5017,10 +5017,10 @@
         <v>16000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8.9375</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>143000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8.9375</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5035,10 +5035,10 @@
         <v>26000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.115399999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>133000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.115399999999999</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5053,10 +5053,10 @@
         <v>28400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4.929600000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4.929600000000001</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         <v>26100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4.7893</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4.7893</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5089,10 +5089,10 @@
         <v>26000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.384600000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.384600000000001</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5107,10 +5107,10 @@
         <v>26400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.1894</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>137000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.1894</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5125,10 +5125,10 @@
         <v>34000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.1471</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.1471</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5143,10 +5143,10 @@
         <v>34000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.1471</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.1471</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5161,10 +5161,10 @@
         <v>34000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.1471</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>175000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.1471</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5179,10 +5179,10 @@
         <v>33000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.1515</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.1515</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5197,10 +5197,10 @@
         <v>33000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4.5455</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>150000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4.5455</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         <v>33000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>165000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5233,10 +5233,10 @@
         <v>30000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.6667</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.6667</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5251,10 +5251,10 @@
         <v>20000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.5</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5269,10 +5269,10 @@
         <v>17000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7.0588</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>7.0588</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5287,10 +5287,10 @@
         <v>12600</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.5397</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>95000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7.5397</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5305,10 +5305,10 @@
         <v>12500</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>94000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.52</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5323,10 +5323,10 @@
         <v>12500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.2</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5341,10 +5341,10 @@
         <v>12000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.0833</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.0833</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5359,10 +5359,10 @@
         <v>11700</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7.076899999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>82800</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7.076899999999999</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5377,10 +5377,10 @@
         <v>11500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.0783</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>81400</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.0783</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5395,10 +5395,10 @@
         <v>10000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>70900</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.09</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5406,387 +5406,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -6096,7 +6431,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6175,14 +6510,17 @@
         <v>10270</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>18.5403</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>190411.55</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>18.5403</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6193,14 +6531,17 @@
         <v>9622</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18.5681</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>178667.24</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>18.5681</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6211,14 +6552,17 @@
         <v>8520</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>19.4449</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>165676.62</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>19.4449</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6229,14 +6573,17 @@
         <v>7767</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>18.842</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>146349.72</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>18.842</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6247,14 +6594,17 @@
         <v>7028</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18.3328</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>128847.8</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>18.3328</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6265,14 +6615,17 @@
         <v>7151</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.2057</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>130187.15</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>18.2057</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6283,14 +6636,17 @@
         <v>6390</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.807</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>120184.24</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>18.807</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6301,14 +6657,17 @@
         <v>6208</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18.1472</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>112661.47</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>18.1472</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6319,14 +6678,17 @@
         <v>3673</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>17.8001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>65387.78</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>17.8001</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6337,14 +6699,17 @@
         <v>2342</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15.2144</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>35627.45</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>15.2144</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6355,14 +6720,17 @@
         <v>1960</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15.5158</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>30411</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>15.5158</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -6373,14 +6741,17 @@
         <v>1170</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>14.5376</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>17009</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>14.5376</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -6391,14 +6762,17 @@
         <v>1325</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16.2023</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>21468</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>16.2023</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -6409,14 +6783,17 @@
         <v>894</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>16.0436</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14343</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>16.0436</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -6427,14 +6804,17 @@
         <v>851</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15.933</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>13559</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>15.933</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -6445,14 +6825,17 @@
         <v>882</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>16.6961</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>14726</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>16.6961</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -6463,14 +6846,17 @@
         <v>775</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>14.809</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>11477</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>14.809</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -6481,14 +6867,17 @@
         <v>586</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.9573</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9351</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>15.9573</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -6499,14 +6888,17 @@
         <v>428</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11.785</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5044</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>11.785</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -6517,14 +6909,17 @@
         <v>282</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10.7979</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3045</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>10.7979</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -6535,14 +6930,17 @@
         <v>290</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.755199999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2249</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>7.755199999999999</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -6553,14 +6951,17 @@
         <v>206</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.932</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2046</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>9.932</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -6571,14 +6972,17 @@
         <v>175</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.4743</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1133</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>6.4743</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -6589,14 +6993,17 @@
         <v>173</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.578</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1138</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>6.578</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -6607,14 +7014,17 @@
         <v>202</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.9109</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1396</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>6.9109</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -6625,14 +7035,17 @@
         <v>163</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.969299999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1625</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>9.969299999999999</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -6643,14 +7056,17 @@
         <v>163</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.3436</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1197</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>7.3436</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -6661,14 +7077,17 @@
         <v>111</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>9.225200000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1024</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>9.225200000000001</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -6679,14 +7098,17 @@
         <v>45</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.6889</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>391</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>8.6889</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -6697,14 +7119,17 @@
         <v>15</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4.8667</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>73</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>4.8667</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -6715,14 +7140,17 @@
         <v>4</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -6733,14 +7161,17 @@
         <v>4</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -6751,14 +7182,17 @@
         <v>3</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -6769,14 +7203,17 @@
         <v>2</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -6787,14 +7224,17 @@
         <v>4</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -6805,14 +7245,17 @@
         <v>4</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -6823,14 +7266,17 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -6841,14 +7287,17 @@
         <v>2</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -6858,9 +7307,12 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -6870,9 +7322,12 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -6882,9 +7337,12 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -6894,9 +7352,12 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -6906,9 +7367,12 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -6918,9 +7382,12 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -6930,9 +7397,12 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -6942,9 +7412,12 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -6954,9 +7427,12 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -6966,9 +7442,12 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -6978,9 +7457,12 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -6990,9 +7472,12 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7002,9 +7487,12 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7014,9 +7502,12 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7026,9 +7517,12 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7038,9 +7532,12 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7050,9 +7547,12 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7062,9 +7562,12 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7074,9 +7577,12 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7085,9 +7591,12 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7096,9 +7605,12 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -7107,9 +7619,12 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -7118,9 +7633,12 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -7129,9 +7647,12 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -7140,9 +7661,12 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -7150,8 +7674,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -7159,8 +7681,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -7470,7 +7990,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -7549,10 +8069,10 @@
         <v>19016</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>5.189</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>98674</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>5.189</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>76.86</v>
@@ -7571,10 +8091,10 @@
         <v>19703</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5.8921</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>116093</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5.8921</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>521.1</v>
@@ -7593,10 +8113,10 @@
         <v>20807</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.315</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>110589</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.315</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>50.72</v>
@@ -7615,10 +8135,10 @@
         <v>24028</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4.939</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>118674.29</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4.939</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>58.52</v>
@@ -7637,10 +8157,10 @@
         <v>23249</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5.164</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>120058</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5.164</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>130.47</v>
@@ -7659,10 +8179,10 @@
         <v>22654</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>5.6065</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>127010</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>5.6065</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>76.66</v>
@@ -7681,10 +8201,10 @@
         <v>21861</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>109742.22</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>5.02</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>132.18</v>
@@ -7703,10 +8223,10 @@
         <v>20194</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5.6042</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>113171.9</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5.6042</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>290.22</v>
@@ -7725,10 +8245,10 @@
         <v>16211</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>5.9938</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>97165.33</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>5.9938</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34</v>
@@ -7747,10 +8267,10 @@
         <v>11041</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>5.5897</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>61715</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>5.5897</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>127.44</v>
@@ -7769,10 +8289,10 @@
         <v>12025</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>5.6931</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>68458</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>5.6931</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -7787,10 +8307,10 @@
         <v>11996</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>70320</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>5.862</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -7805,10 +8325,10 @@
         <v>15354</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>5.8357</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>89602</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>5.8357</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -7823,10 +8343,10 @@
         <v>15171</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.5283</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>83870</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.5283</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -7841,10 +8361,10 @@
         <v>14957</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.814100000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>86961</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.814100000000001</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -7859,10 +8379,10 @@
         <v>14680</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.7424</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>84299</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.7424</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -7877,10 +8397,10 @@
         <v>14496</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.311199999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>76991</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.311199999999999</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -7895,10 +8415,10 @@
         <v>15024</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.3035</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>79680</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.3035</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -7906,555 +8426,1044 @@
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="28" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C30" s="29" t="inlineStr"/>
-      <c r="D30" s="29" t="inlineStr"/>
-      <c r="E30" s="29" t="inlineStr"/>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
+      <c r="B30" s="29" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="C30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="28" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C31" s="29" t="inlineStr"/>
-      <c r="D31" s="29" t="inlineStr"/>
-      <c r="E31" s="29" t="inlineStr"/>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
+      <c r="B31" s="29" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="C31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="28" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C32" s="29" t="inlineStr"/>
-      <c r="D32" s="29" t="inlineStr"/>
-      <c r="E32" s="29" t="inlineStr"/>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="28" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C33" s="29" t="inlineStr"/>
-      <c r="D33" s="29" t="inlineStr"/>
-      <c r="E33" s="29" t="inlineStr"/>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="28" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C34" s="29" t="inlineStr"/>
-      <c r="D34" s="29" t="inlineStr"/>
-      <c r="E34" s="29" t="inlineStr"/>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="28" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C35" s="29" t="inlineStr"/>
-      <c r="D35" s="29" t="inlineStr"/>
-      <c r="E35" s="29" t="inlineStr"/>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="28" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C36" s="29" t="inlineStr"/>
-      <c r="D36" s="29" t="inlineStr"/>
-      <c r="E36" s="29" t="inlineStr"/>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="28" t="n">
-        <v>1998</v>
-      </c>
-      <c r="C37" s="29" t="inlineStr"/>
-      <c r="D37" s="29" t="inlineStr"/>
-      <c r="E37" s="29" t="inlineStr"/>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="28" t="n">
-        <v>1997</v>
-      </c>
-      <c r="C38" s="29" t="inlineStr"/>
-      <c r="D38" s="29" t="inlineStr"/>
-      <c r="E38" s="29" t="inlineStr"/>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="28" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C39" s="29" t="inlineStr"/>
-      <c r="D39" s="29" t="inlineStr"/>
-      <c r="E39" s="29" t="inlineStr"/>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="28" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C40" s="29" t="inlineStr"/>
-      <c r="D40" s="29" t="inlineStr"/>
-      <c r="E40" s="29" t="inlineStr"/>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="28" t="n">
-        <v>1994</v>
-      </c>
-      <c r="C41" s="29" t="inlineStr"/>
-      <c r="D41" s="29" t="inlineStr"/>
-      <c r="E41" s="29" t="inlineStr"/>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="28" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C42" s="29" t="inlineStr"/>
-      <c r="D42" s="29" t="inlineStr"/>
-      <c r="E42" s="29" t="inlineStr"/>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -8764,7 +9773,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8843,10 +9852,10 @@
         <v>21400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4.490699999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>96100</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4.490699999999999</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4850.29</v>
@@ -8865,10 +9874,10 @@
         <v>21700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4.8341</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>104900</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4.8341</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5249.21</v>
@@ -8887,10 +9896,10 @@
         <v>19800</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5.2475</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>103900</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5.2475</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3922.6</v>
@@ -8909,10 +9918,10 @@
         <v>17900</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.8827</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>123200</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.8827</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2832.96</v>
@@ -8931,10 +9940,10 @@
         <v>29520</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.563</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>75660</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.563</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3359.99</v>
@@ -8953,10 +9962,10 @@
         <v>29610</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3.9044</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>115610</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3.9044</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2000.05</v>
@@ -8975,10 +9984,10 @@
         <v>29317</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3.5639</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>104482</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3.5639</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2417.15</v>
@@ -8997,10 +10006,10 @@
         <v>29282</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4.4076</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>129063</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4.4076</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2159.92</v>
@@ -9019,10 +10028,10 @@
         <v>27375</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.9185</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>79895</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.9185</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5596.29</v>
@@ -9041,10 +10050,10 @@
         <v>28272</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4.4517</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>125859</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4.4517</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1333.11</v>
@@ -9063,10 +10072,10 @@
         <v>28823</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4.1994</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>121040</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4.1994</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -9081,10 +10090,10 @@
         <v>28423</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4.4701</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>127055</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4.4701</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -9099,10 +10108,10 @@
         <v>27063</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>117995</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4.36</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -9117,10 +10126,10 @@
         <v>29556</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>92864</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3.142</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -9135,10 +10144,10 @@
         <v>20223</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>4.0438</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>81778</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>4.0438</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -9153,10 +10162,10 @@
         <v>19971</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4.0835</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>81552</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4.0835</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -9171,10 +10180,10 @@
         <v>20604</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.7369</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>56391</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.7369</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -9189,10 +10198,10 @@
         <v>17025</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>52539</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3.086</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -9207,10 +10216,10 @@
         <v>17763</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3.6864</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>65482</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3.6864</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -9225,10 +10234,10 @@
         <v>14169</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4.0112</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>56835</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4.0112</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -9243,10 +10252,10 @@
         <v>13253</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3.2401</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>42941</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3.2401</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -9261,10 +10270,10 @@
         <v>13417</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3.3446</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>44874</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3.3446</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -9279,10 +10288,10 @@
         <v>12916</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>44818</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3.47</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -9297,10 +10306,10 @@
         <v>12587</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3.1562</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>39727</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3.1562</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -9315,10 +10324,10 @@
         <v>12609</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3.4257</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>43195</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3.4257</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -9333,10 +10342,10 @@
         <v>12775</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3.5104</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>44845</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3.5104</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -9351,10 +10360,10 @@
         <v>12676</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3.1829</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>40347</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3.1829</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -9369,10 +10378,10 @@
         <v>12470</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.8677</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>35760</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.8677</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -9387,10 +10396,10 @@
         <v>12140</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3.3295</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>40420</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3.3295</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -9405,10 +10414,10 @@
         <v>10320</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.9291</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>30228</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.9291</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -9423,10 +10432,10 @@
         <v>9977</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3.2532</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>32457</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3.2532</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -9441,10 +10450,10 @@
         <v>10171</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.7675</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>28148</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.7675</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -9459,10 +10468,10 @@
         <v>11006</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.8757</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>31650</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.8757</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -9477,10 +10486,10 @@
         <v>10762</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.6442</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>28457</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.6442</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -9495,10 +10504,10 @@
         <v>10100</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>4.3487</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>43922</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>4.3487</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -9513,10 +10522,10 @@
         <v>10100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4.2991</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>43421</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>4.2991</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -9531,10 +10540,10 @@
         <v>10100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.6961</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>17131</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.6961</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -9549,10 +10558,10 @@
         <v>10100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3.1879</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>32198</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3.1879</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -9567,10 +10576,10 @@
         <v>9098</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.1675</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>37916</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.1675</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -9585,10 +10594,10 @@
         <v>8900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3.3202</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>29550</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3.3202</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -9603,10 +10612,10 @@
         <v>8900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3.2926</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>29304</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3.2926</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -9621,10 +10630,10 @@
         <v>8900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3.3544</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>29854</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3.3544</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -9639,10 +10648,10 @@
         <v>8900</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.8004</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>24924</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.8004</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -9657,10 +10666,10 @@
         <v>9001</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2.1672</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19507</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2.1672</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -9675,10 +10684,10 @@
         <v>8000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3.0813</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>24650</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3.0813</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -9693,10 +10702,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3.0109</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>24087</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3.0109</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -9711,10 +10720,10 @@
         <v>7533</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.7389</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>20632</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.7389</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -9729,10 +10738,10 @@
         <v>7899</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.3366</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18457</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.3366</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -9747,10 +10756,10 @@
         <v>6879</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.6271</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>24951</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.6271</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -9765,10 +10774,10 @@
         <v>6169</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.9079</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17939</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.9079</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -9783,10 +10792,10 @@
         <v>6007</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3.1851</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>19133</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3.1851</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -9801,10 +10810,10 @@
         <v>5850</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.0759</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12144</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.0759</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -9819,10 +10828,10 @@
         <v>5805</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.9516</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11329</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.9516</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -9837,10 +10846,10 @@
         <v>5417</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.0388</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11044</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.0388</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -9855,10 +10864,10 @@
         <v>5412</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.2727</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12300</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.2727</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -9873,10 +10882,10 @@
         <v>4895</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.8386</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.8386</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -9891,10 +10900,10 @@
         <v>4848</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.6403</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12800</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.6403</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -9908,10 +10917,10 @@
         <v>4711</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.6557</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7800</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.6557</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -9925,10 +10934,10 @@
         <v>4576</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.2893</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5900</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.2893</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -9941,10 +10950,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>8300</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
       <c r="H71" s="29" t="n"/>
@@ -9956,10 +10965,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>5200</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
       <c r="H72" s="29" t="n"/>
@@ -9971,10 +10980,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>4700</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
       <c r="H73" s="29" t="n"/>
@@ -9986,10 +10995,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>4800</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
       <c r="H74" s="29" t="n"/>
@@ -10320,7 +11329,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10399,10 +11408,10 @@
         <v>5989</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>10.4592</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>62640</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>10.4592</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>245014.67</v>
@@ -10421,10 +11430,10 @@
         <v>6354</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11.4998</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>73070</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>11.4998</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>256031.75</v>
@@ -10443,10 +11452,10 @@
         <v>6232</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.9143</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>74250</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11.9143</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>231621.78</v>
@@ -10465,10 +11474,10 @@
         <v>6840</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14.7222</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>100700</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14.7222</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>207499.26</v>
@@ -10487,10 +11496,10 @@
         <v>6760</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14.3861</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>97250.23</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14.3861</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>170258.24</v>
@@ -10509,10 +11518,10 @@
         <v>6840</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>14.5102</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>99250</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>14.5102</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>181582.69</v>
@@ -10531,10 +11540,10 @@
         <v>8080</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>12.7277</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>102840</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>12.7277</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>162009.47</v>
@@ -10553,10 +11562,10 @@
         <v>8017</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>14.6161</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>117177</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>14.6161</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>134934.84</v>
@@ -10575,10 +11584,10 @@
         <v>8223</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>14.5075</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>119295</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>14.5075</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>146417.6</v>
@@ -10597,10 +11606,10 @@
         <v>7912</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13.0827</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>103510</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13.0827</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108275.62</v>
@@ -10619,10 +11628,10 @@
         <v>7527</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>11.0642</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>83280</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>11.0642</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -10637,10 +11646,10 @@
         <v>7042</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>10.8631</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>76498</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>10.8631</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -10655,10 +11664,10 @@
         <v>7082</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>12.0751</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>85516</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>12.0751</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -10673,10 +11682,10 @@
         <v>7122</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.481999999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>67531</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.481999999999999</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -10691,10 +11700,10 @@
         <v>7163</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>12.5212</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>89689</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>12.5212</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -10709,10 +11718,10 @@
         <v>7284</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.314</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>67843</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.314</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -10727,10 +11736,10 @@
         <v>6515</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9.9246</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>64659</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9.9246</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -10745,10 +11754,10 @@
         <v>6718</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>11.1407</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>74843</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>11.1407</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -10763,10 +11772,10 @@
         <v>6840</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12.105</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>82798</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12.105</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -10781,10 +11790,10 @@
         <v>6515</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>11.0338</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>71885</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>11.0338</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -10799,10 +11808,10 @@
         <v>6192</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>10.0212</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>62051</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>10.0212</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -10817,10 +11826,10 @@
         <v>6192</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.3393</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>51637</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.3393</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -10835,10 +11844,10 @@
         <v>6192</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.392100000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>51964</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>8.392100000000001</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -10853,10 +11862,10 @@
         <v>6212</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7.8823</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>48965</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7.8823</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10871,10 +11880,10 @@
         <v>6232</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7.8644</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>49011</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>7.8644</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10889,10 +11898,10 @@
         <v>6095</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.0103</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>42728</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7.0103</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10907,10 +11916,10 @@
         <v>6030</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.5524</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>45541</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.5524</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10925,10 +11934,10 @@
         <v>5241</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.253</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>32772</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.253</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10943,10 +11952,10 @@
         <v>5261</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.6742</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>40374</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.6742</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10961,10 +11970,10 @@
         <v>5079</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.3538</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>42429</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.3538</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10979,10 +11988,10 @@
         <v>4816</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.3484</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>40206</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.3484</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10997,10 +12006,10 @@
         <v>4856</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.6067</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>41794</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.6067</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -11015,10 +12024,10 @@
         <v>4210</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5.4632</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>23000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5.4632</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -11033,10 +12042,10 @@
         <v>4450</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>5.3146</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23650</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>5.3146</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -11051,10 +12060,10 @@
         <v>3880</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.626300000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>25710</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.626300000000001</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -11069,10 +12078,10 @@
         <v>3760</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.7971</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>21797</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.7971</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -11087,10 +12096,10 @@
         <v>3620</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.1398</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>22226</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6.1398</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -11105,10 +12114,10 @@
         <v>3260</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.0307</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13140</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.0307</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -11123,10 +12132,10 @@
         <v>3010</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.7458</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14285</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.7458</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -11141,10 +12150,10 @@
         <v>2870</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5.2526</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15075</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5.2526</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -11159,10 +12168,10 @@
         <v>2820</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.534800000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15608</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5.534800000000001</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -11177,10 +12186,10 @@
         <v>2920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5.2932</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15456</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5.2932</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -11195,10 +12204,10 @@
         <v>2720</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.9265</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13400</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.9265</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -11213,10 +12222,10 @@
         <v>2720</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.4118</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>12000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.4118</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -11231,10 +12240,10 @@
         <v>2400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.8583</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11660</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.8583</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -11249,10 +12258,10 @@
         <v>2360</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.831399999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11402</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.831399999999999</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -11267,10 +12276,10 @@
         <v>2430</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.221</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12687</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.221</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -11285,10 +12294,10 @@
         <v>2510</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4.6865</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11763</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4.6865</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -11303,10 +12312,10 @@
         <v>2650</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.977399999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13190</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.977399999999999</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -11321,10 +12330,10 @@
         <v>2730</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.526</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12356</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4.526</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -11339,10 +12348,10 @@
         <v>2720</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4.4044</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11980</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4.4044</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -11357,10 +12366,10 @@
         <v>2970</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3.7811</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11230</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3.7811</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -11375,10 +12384,10 @@
         <v>3380</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3.7979</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12837</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3.7979</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -11393,10 +12402,10 @@
         <v>3500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3.8449</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13457</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>3.8449</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -11411,10 +12420,10 @@
         <v>3550</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.0358</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17877</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.0358</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -11429,10 +12438,10 @@
         <v>3660</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13608</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>3.718</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -11447,10 +12456,10 @@
         <v>4170</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.3372</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18086</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4.3372</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -11464,10 +12473,10 @@
         <v>4290</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.5501</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>19520</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4.5501</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -11481,10 +12490,10 @@
         <v>4270</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4.0007</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17083</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4.0007</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -11498,10 +12507,10 @@
         <v>3420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4.6871</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16030</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4.6871</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -11515,10 +12524,10 @@
         <v>3120</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.3679</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>16748</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.3679</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -11532,10 +12541,10 @@
         <v>3120</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4.3772</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13657</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4.3772</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -11549,10 +12558,10 @@
         <v>3350</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3.8316</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12836</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3.8316</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>

--- a/Resultados/Mercado mundial - Frambuesas.xlsx
+++ b/Resultados/Mercado mundial - Frambuesas.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Serbia" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Polonia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Russian Federation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Serbia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Poland" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="United States of America" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Federación de Rusia'!$B$12:$B$74</f>
+              <f>'Russian Federation'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Federación de Rusia'!$C$12:$C$74</f>
+              <f>'Russian Federation'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +924,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Polonia'!$B$12:$B$74</f>
+              <f>'Poland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Polonia'!$C$12:$C$74</f>
+              <f>'Poland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>121056</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>940979.29</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7.7731</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>940979.29</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>479881.49</v>
@@ -2160,10 +2160,10 @@
         <v>120594</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>959776.75</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>7.9588</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>959776.75</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>522325.71</v>
@@ -2182,10 +2182,10 @@
         <v>118286</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>921105.83</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7.787100000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>921105.83</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>482262.35</v>
@@ -2204,10 +2204,10 @@
         <v>124333</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>934700.27</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>7.5177</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>934700.27</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>440929.1</v>
@@ -2226,10 +2226,10 @@
         <v>132430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>877834.87</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.6287</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>877834.87</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>404232.67</v>
@@ -2248,10 +2248,10 @@
         <v>128656</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>899742.45</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.993399999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>899742.45</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>378661.83</v>
@@ -2270,10 +2270,10 @@
         <v>120079</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>818311.6</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.8148</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>818311.6</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>328204.57</v>
@@ -2292,10 +2292,10 @@
         <v>116399</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>839046.4</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.208399999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>839046.4</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>277624.42</v>
@@ -2314,10 +2314,10 @@
         <v>103078</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>686471.64</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.6597</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>686471.64</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>292536.81</v>
@@ -2336,10 +2336,10 @@
         <v>94636</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>639022.26</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.7524</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>639022.26</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>233145.07</v>
@@ -2358,10 +2358,10 @@
         <v>93995</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>597504.29</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.3568</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>597504.29</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -2376,10 +2376,10 @@
         <v>103525</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>577551.27</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.5788</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>577551.27</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -2394,10 +2394,10 @@
         <v>107958</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>606734.95</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.620100000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>606734.95</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -2412,10 +2412,10 @@
         <v>107127</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>528469.51</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.9331</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>528469.51</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -2430,10 +2430,10 @@
         <v>98099</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>564022.1899999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.7495</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>564022.1899999999</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -2448,10 +2448,10 @@
         <v>98645</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>528362.13</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.356199999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>528362.13</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
         <v>106041</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>520927.51</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4.9125</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>520927.51</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -2484,10 +2484,10 @@
         <v>102897</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>537277.98</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.2215</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>537277.98</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -2502,10 +2502,10 @@
         <v>100531</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>538072.23</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.352300000000001</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>538072.23</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -2520,10 +2520,10 @@
         <v>97714</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>534792.05</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.473</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>534792.05</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -2538,10 +2538,10 @@
         <v>97737</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>465447.46</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.7622</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>465447.46</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -2556,10 +2556,10 @@
         <v>97366</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>492411.11</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5.057300000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>492411.11</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -2574,10 +2574,10 @@
         <v>92453</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>450333.23</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.8709</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>450333.23</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         <v>83395</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>422536.56</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5.0667</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>422536.56</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -2610,10 +2610,10 @@
         <v>80342</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>416583.49</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.1852</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>416583.49</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -2628,10 +2628,10 @@
         <v>74591</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>377124.11</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.055899999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>377124.11</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -2646,10 +2646,10 @@
         <v>71716</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>345472.31</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.8172</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>345472.31</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -2664,10 +2664,10 @@
         <v>72401</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>343767.26</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4.7481</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>343767.26</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -2682,10 +2682,10 @@
         <v>70355</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>341773.35</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>4.8578</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>341773.35</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -2700,10 +2700,10 @@
         <v>67276</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>335075.12</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.980600000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>335075.12</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -2718,10 +2718,10 @@
         <v>69344</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>328705.25</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4.7402</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>328705.25</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -2736,10 +2736,10 @@
         <v>70045</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>335287.06</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4.7867</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>335287.06</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         <v>68919</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>285473.3</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4.1422</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>285473.3</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -2772,10 +2772,10 @@
         <v>66101</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>303780</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.5957</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>303780</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -2790,10 +2790,10 @@
         <v>76521</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>398209</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.2039</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>398209</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -2808,10 +2808,10 @@
         <v>73770</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>381882</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.176699999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>381882</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         <v>72530</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>327458</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.5148</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>327458</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -2844,10 +2844,10 @@
         <v>66716</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>311815</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.6738</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>311815</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         <v>65215</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>313925</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.8137</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>313925</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         <v>44180</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>293161</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6.6356</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>293161</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -2898,10 +2898,10 @@
         <v>43675</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>277271</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6.3486</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>277271</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -2916,10 +2916,10 @@
         <v>42155</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>264551</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6.2757</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>264551</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -2934,10 +2934,10 @@
         <v>42668</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>263006</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6.164</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>263006</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         <v>41117</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>231726</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.635800000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>231726</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -2970,10 +2970,10 @@
         <v>40641</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>233508</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.7456</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>233508</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
         <v>39385</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>229052</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.8157</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>229052</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -3006,10 +3006,10 @@
         <v>38452</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>217597</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.6589</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>217597</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -3024,10 +3024,10 @@
         <v>39018</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>212537</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.4472</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>212537</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -3042,10 +3042,10 @@
         <v>40659</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>257358</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.3297</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>257358</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         <v>37160</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>205809</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.5385</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>205809</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         <v>40325</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>251329</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6.232600000000001</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>251329</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -3096,10 +3096,10 @@
         <v>36667</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>202299</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.5172</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>202299</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -3114,10 +3114,10 @@
         <v>36644</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>198446</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5.4155</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>198446</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -3132,10 +3132,10 @@
         <v>36800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>209232</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.6857</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>209232</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -3150,10 +3150,10 @@
         <v>29572</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>181575</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6.1401</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>181575</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         <v>28372</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>166213</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.8583</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>166213</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -3186,10 +3186,10 @@
         <v>28964</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>182634</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6.3056</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>182634</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         <v>28801</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>178076</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6.183</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>178076</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -3220,10 +3220,10 @@
         <v>29242</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>167846</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5.7399</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>167846</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -3237,10 +3237,10 @@
         <v>24139</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>172044</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7.1272</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>172044</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
         <v>22171</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>157826</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.118600000000001</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>157826</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -3271,10 +3271,10 @@
         <v>21488</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>141177</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.57</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>141177</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -3288,10 +3288,10 @@
         <v>21746</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>134115</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.1673</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>134115</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -3574,8 +3574,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3670,7 +3670,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3684,7 +3684,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3712,7 +3712,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3726,7 +3726,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3740,7 +3740,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3768,7 +3768,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3782,7 +3782,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -3796,7 +3796,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -3904,7 +3904,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4003,7 +4003,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4017,7 +4017,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4031,7 +4031,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4059,7 +4059,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4073,7 +4073,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4087,7 +4087,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4101,7 +4101,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4129,7 +4129,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4325,8 +4325,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4421,7 +4421,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4435,7 +4435,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4449,7 +4449,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4463,7 +4463,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4477,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4491,7 +4491,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4505,7 +4505,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4519,7 +4519,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4547,7 +4547,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4720,7 +4720,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -4799,10 +4799,10 @@
         <v>31006</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>219338.33</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>7.0741</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>219338.33</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1608.29</v>
@@ -4821,10 +4821,10 @@
         <v>30011</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>212300</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>7.0741</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>212300</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2479.77</v>
@@ -4843,10 +4843,10 @@
         <v>27933</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>197600</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>7.0741</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>197600</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2580.54</v>
@@ -4865,10 +4865,10 @@
         <v>32537</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>182000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5.5936</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>182000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2529.64</v>
@@ -4887,10 +4887,10 @@
         <v>30017</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>174000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.7967</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>174000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3312.2</v>
@@ -4909,10 +4909,10 @@
         <v>26226</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>165800</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.322</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>165800</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3553.5</v>
@@ -4931,10 +4931,10 @@
         <v>18848</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>133200</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7.0672</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>133200</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1962.96</v>
@@ -4953,10 +4953,10 @@
         <v>19366</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>151700</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.8333</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>151700</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1124.69</v>
@@ -4975,10 +4975,10 @@
         <v>16400</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>137800</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.4024</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>137800</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>984.55</v>
@@ -4995,10 +4995,10 @@
         <v>16600</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>144000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.674700000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>144000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1426</v>
@@ -5017,10 +5017,10 @@
         <v>16000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>143000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8.9375</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>143000</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -5035,10 +5035,10 @@
         <v>26000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>133000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.115399999999999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>133000</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -5053,10 +5053,10 @@
         <v>28400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4.929600000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         <v>26100</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4.7893</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -5089,10 +5089,10 @@
         <v>26000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.384600000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -5107,10 +5107,10 @@
         <v>26400</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>137000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.1894</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>137000</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -5125,10 +5125,10 @@
         <v>34000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.1471</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -5143,10 +5143,10 @@
         <v>34000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.1471</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -5161,10 +5161,10 @@
         <v>34000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.1471</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>175000</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -5179,10 +5179,10 @@
         <v>33000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.1515</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -5197,10 +5197,10 @@
         <v>33000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4.5455</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>150000</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
         <v>33000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>165000</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -5233,10 +5233,10 @@
         <v>30000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.6667</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -5251,10 +5251,10 @@
         <v>20000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.5</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -5269,10 +5269,10 @@
         <v>17000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7.0588</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -5287,10 +5287,10 @@
         <v>12600</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>95000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.5397</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>95000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -5305,10 +5305,10 @@
         <v>12500</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.52</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>94000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -5323,10 +5323,10 @@
         <v>12500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.2</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -5341,10 +5341,10 @@
         <v>12000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.0833</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -5359,10 +5359,10 @@
         <v>11700</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>82800</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7.076899999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>82800</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -5377,10 +5377,10 @@
         <v>11500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>81400</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.0783</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>81400</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -5395,10 +5395,10 @@
         <v>10000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>70900</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.09</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>70900</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -5406,722 +5406,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -6431,7 +6096,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6510,17 +6175,14 @@
         <v>10270</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>190411.55</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>18.5403</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>190411.55</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -6531,17 +6193,14 @@
         <v>9622</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>178667.24</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18.5681</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>178667.24</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -6552,17 +6211,14 @@
         <v>8520</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>165676.62</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>19.4449</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>165676.62</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -6573,17 +6229,14 @@
         <v>7767</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>146349.72</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>18.842</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>146349.72</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -6594,17 +6247,14 @@
         <v>7028</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>128847.8</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18.3328</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>128847.8</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -6615,17 +6265,14 @@
         <v>7151</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>130187.15</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.2057</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>130187.15</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -6636,17 +6283,14 @@
         <v>6390</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>120184.24</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.807</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>120184.24</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -6657,17 +6301,14 @@
         <v>6208</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>112661.47</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18.1472</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>112661.47</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -6678,17 +6319,14 @@
         <v>3673</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>65387.78</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>17.8001</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>65387.78</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -6699,17 +6337,14 @@
         <v>2342</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>35627.45</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15.2144</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>35627.45</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -6720,17 +6355,14 @@
         <v>1960</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>30411</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15.5158</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>30411</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -6741,17 +6373,14 @@
         <v>1170</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>17009</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>14.5376</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>17009</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -6762,17 +6391,14 @@
         <v>1325</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>21468</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16.2023</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>21468</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -6783,17 +6409,14 @@
         <v>894</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14343</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>16.0436</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>14343</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -6804,17 +6427,14 @@
         <v>851</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>13559</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15.933</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>13559</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -6825,17 +6445,14 @@
         <v>882</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>14726</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>16.6961</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>14726</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -6846,17 +6463,14 @@
         <v>775</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>11477</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>14.809</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>11477</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -6867,17 +6481,14 @@
         <v>586</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9351</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.9573</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>9351</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -6888,17 +6499,14 @@
         <v>428</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5044</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11.785</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>5044</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -6909,17 +6517,14 @@
         <v>282</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3045</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10.7979</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>3045</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -6930,17 +6535,14 @@
         <v>290</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2249</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.755199999999999</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>2249</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -6951,17 +6553,14 @@
         <v>206</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2046</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.932</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>2046</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -6972,17 +6571,14 @@
         <v>175</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1133</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.4743</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>1133</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -6993,17 +6589,14 @@
         <v>173</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.578</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>1138</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -7014,17 +6607,14 @@
         <v>202</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1396</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.9109</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>1396</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -7035,17 +6625,14 @@
         <v>163</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.969299999999999</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>1625</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -7056,17 +6643,14 @@
         <v>163</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.3436</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>1197</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -7077,17 +6661,14 @@
         <v>111</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>9.225200000000001</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -7098,17 +6679,14 @@
         <v>45</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>391</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.6889</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>391</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -7119,17 +6697,14 @@
         <v>15</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>73</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4.8667</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>73</v>
-      </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -7140,17 +6715,14 @@
         <v>4</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.75</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -7161,17 +6733,14 @@
         <v>4</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>12</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -7182,17 +6751,14 @@
         <v>3</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -7203,17 +6769,14 @@
         <v>2</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -7224,17 +6787,14 @@
         <v>4</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.25</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -7245,17 +6805,14 @@
         <v>4</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.25</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -7266,17 +6823,14 @@
         <v>2</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -7287,17 +6841,14 @@
         <v>2</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -7307,12 +6858,9 @@
       <c r="C50" s="29" t="inlineStr"/>
       <c r="D50" s="29" t="inlineStr"/>
       <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -7322,12 +6870,9 @@
       <c r="C51" s="29" t="inlineStr"/>
       <c r="D51" s="29" t="inlineStr"/>
       <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -7337,12 +6882,9 @@
       <c r="C52" s="29" t="inlineStr"/>
       <c r="D52" s="29" t="inlineStr"/>
       <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -7352,12 +6894,9 @@
       <c r="C53" s="29" t="inlineStr"/>
       <c r="D53" s="29" t="inlineStr"/>
       <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -7367,12 +6906,9 @@
       <c r="C54" s="29" t="inlineStr"/>
       <c r="D54" s="29" t="inlineStr"/>
       <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -7382,12 +6918,9 @@
       <c r="C55" s="29" t="inlineStr"/>
       <c r="D55" s="29" t="inlineStr"/>
       <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -7397,12 +6930,9 @@
       <c r="C56" s="29" t="inlineStr"/>
       <c r="D56" s="29" t="inlineStr"/>
       <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -7412,12 +6942,9 @@
       <c r="C57" s="29" t="inlineStr"/>
       <c r="D57" s="29" t="inlineStr"/>
       <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -7427,12 +6954,9 @@
       <c r="C58" s="29" t="inlineStr"/>
       <c r="D58" s="29" t="inlineStr"/>
       <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -7442,12 +6966,9 @@
       <c r="C59" s="29" t="inlineStr"/>
       <c r="D59" s="29" t="inlineStr"/>
       <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -7457,12 +6978,9 @@
       <c r="C60" s="29" t="inlineStr"/>
       <c r="D60" s="29" t="inlineStr"/>
       <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -7472,12 +6990,9 @@
       <c r="C61" s="29" t="inlineStr"/>
       <c r="D61" s="29" t="inlineStr"/>
       <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -7487,12 +7002,9 @@
       <c r="C62" s="29" t="inlineStr"/>
       <c r="D62" s="29" t="inlineStr"/>
       <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -7502,12 +7014,9 @@
       <c r="C63" s="29" t="inlineStr"/>
       <c r="D63" s="29" t="inlineStr"/>
       <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -7517,12 +7026,9 @@
       <c r="C64" s="29" t="inlineStr"/>
       <c r="D64" s="29" t="inlineStr"/>
       <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -7532,12 +7038,9 @@
       <c r="C65" s="29" t="inlineStr"/>
       <c r="D65" s="29" t="inlineStr"/>
       <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -7547,12 +7050,9 @@
       <c r="C66" s="29" t="inlineStr"/>
       <c r="D66" s="29" t="inlineStr"/>
       <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -7562,12 +7062,9 @@
       <c r="C67" s="29" t="inlineStr"/>
       <c r="D67" s="29" t="inlineStr"/>
       <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -7577,12 +7074,9 @@
       <c r="C68" s="29" t="inlineStr"/>
       <c r="D68" s="29" t="inlineStr"/>
       <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -7591,12 +7085,9 @@
       <c r="C69" s="29" t="inlineStr"/>
       <c r="D69" s="29" t="inlineStr"/>
       <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -7605,12 +7096,9 @@
       <c r="C70" s="29" t="inlineStr"/>
       <c r="D70" s="29" t="inlineStr"/>
       <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -7619,12 +7107,9 @@
       <c r="C71" s="29" t="inlineStr"/>
       <c r="D71" s="29" t="inlineStr"/>
       <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -7633,12 +7118,9 @@
       <c r="C72" s="29" t="inlineStr"/>
       <c r="D72" s="29" t="inlineStr"/>
       <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -7647,12 +7129,9 @@
       <c r="C73" s="29" t="inlineStr"/>
       <c r="D73" s="29" t="inlineStr"/>
       <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -7661,12 +7140,9 @@
       <c r="C74" s="29" t="inlineStr"/>
       <c r="D74" s="29" t="inlineStr"/>
       <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -7674,6 +7150,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -7681,6 +7159,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -7990,7 +7470,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8069,10 +7549,10 @@
         <v>19016</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>98674</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>5.189</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>98674</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>76.86</v>
@@ -8091,10 +7571,10 @@
         <v>19703</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>116093</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5.8921</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>116093</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>521.1</v>
@@ -8113,10 +7593,10 @@
         <v>20807</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>110589</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.315</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>110589</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>50.72</v>
@@ -8135,10 +7615,10 @@
         <v>24028</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>118674.29</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4.939</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>118674.29</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>58.52</v>
@@ -8157,10 +7637,10 @@
         <v>23249</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>120058</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5.164</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>120058</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>130.47</v>
@@ -8179,10 +7659,10 @@
         <v>22654</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>127010</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>5.6065</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>127010</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>76.66</v>
@@ -8201,10 +7681,10 @@
         <v>21861</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>109742.22</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>5.02</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>109742.22</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>132.18</v>
@@ -8223,10 +7703,10 @@
         <v>20194</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>113171.9</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5.6042</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>113171.9</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>290.22</v>
@@ -8245,10 +7725,10 @@
         <v>16211</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>97165.33</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>5.9938</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>97165.33</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>34</v>
@@ -8267,10 +7747,10 @@
         <v>11041</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>61715</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>5.5897</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>61715</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>127.44</v>
@@ -8289,10 +7769,10 @@
         <v>12025</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>68458</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>5.6931</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>68458</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -8307,10 +7787,10 @@
         <v>11996</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>70320</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>5.862</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>70320</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -8325,10 +7805,10 @@
         <v>15354</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>89602</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>5.8357</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>89602</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -8343,10 +7823,10 @@
         <v>15171</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>83870</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.5283</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>83870</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -8361,10 +7841,10 @@
         <v>14957</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>86961</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.814100000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>86961</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -8379,10 +7859,10 @@
         <v>14680</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>84299</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.7424</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>84299</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -8397,10 +7877,10 @@
         <v>14496</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>76991</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.311199999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>76991</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -8415,10 +7895,10 @@
         <v>15024</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>79680</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.3035</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>79680</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -8426,1044 +7906,555 @@
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="29" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="C30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B30" s="28" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C30" s="29" t="inlineStr"/>
+      <c r="D30" s="29" t="inlineStr"/>
+      <c r="E30" s="29" t="inlineStr"/>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
       <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="29" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="C31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B31" s="28" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C31" s="29" t="inlineStr"/>
+      <c r="D31" s="29" t="inlineStr"/>
+      <c r="E31" s="29" t="inlineStr"/>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
       <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="B32" s="28" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="29" t="inlineStr"/>
+      <c r="D32" s="29" t="inlineStr"/>
+      <c r="E32" s="29" t="inlineStr"/>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="B33" s="28" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C33" s="29" t="inlineStr"/>
+      <c r="D33" s="29" t="inlineStr"/>
+      <c r="E33" s="29" t="inlineStr"/>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="B34" s="28" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C34" s="29" t="inlineStr"/>
+      <c r="D34" s="29" t="inlineStr"/>
+      <c r="E34" s="29" t="inlineStr"/>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="B35" s="28" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="29" t="inlineStr"/>
+      <c r="D35" s="29" t="inlineStr"/>
+      <c r="E35" s="29" t="inlineStr"/>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="B36" s="28" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C36" s="29" t="inlineStr"/>
+      <c r="D36" s="29" t="inlineStr"/>
+      <c r="E36" s="29" t="inlineStr"/>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="B37" s="28" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C37" s="29" t="inlineStr"/>
+      <c r="D37" s="29" t="inlineStr"/>
+      <c r="E37" s="29" t="inlineStr"/>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="B38" s="28" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C38" s="29" t="inlineStr"/>
+      <c r="D38" s="29" t="inlineStr"/>
+      <c r="E38" s="29" t="inlineStr"/>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="B39" s="28" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C39" s="29" t="inlineStr"/>
+      <c r="D39" s="29" t="inlineStr"/>
+      <c r="E39" s="29" t="inlineStr"/>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="B40" s="28" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C40" s="29" t="inlineStr"/>
+      <c r="D40" s="29" t="inlineStr"/>
+      <c r="E40" s="29" t="inlineStr"/>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="B41" s="28" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C41" s="29" t="inlineStr"/>
+      <c r="D41" s="29" t="inlineStr"/>
+      <c r="E41" s="29" t="inlineStr"/>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="B42" s="28" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C42" s="29" t="inlineStr"/>
+      <c r="D42" s="29" t="inlineStr"/>
+      <c r="E42" s="29" t="inlineStr"/>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="29" t="inlineStr"/>
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -9773,7 +8764,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -9852,10 +8843,10 @@
         <v>21400</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>96100</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4.490699999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>96100</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4850.29</v>
@@ -9874,10 +8865,10 @@
         <v>21700</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>104900</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4.8341</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>104900</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5249.21</v>
@@ -9896,10 +8887,10 @@
         <v>19800</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>103900</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5.2475</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>103900</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3922.6</v>
@@ -9918,10 +8909,10 @@
         <v>17900</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>123200</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.8827</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>123200</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2832.96</v>
@@ -9940,10 +8931,10 @@
         <v>29520</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>75660</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.563</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>75660</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3359.99</v>
@@ -9962,10 +8953,10 @@
         <v>29610</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>115610</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3.9044</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>115610</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2000.05</v>
@@ -9984,10 +8975,10 @@
         <v>29317</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>104482</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3.5639</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>104482</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2417.15</v>
@@ -10006,10 +8997,10 @@
         <v>29282</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>129063</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4.4076</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>129063</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2159.92</v>
@@ -10028,10 +9019,10 @@
         <v>27375</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>79895</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.9185</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>79895</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>5596.29</v>
@@ -10050,10 +9041,10 @@
         <v>28272</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>125859</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4.4517</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>125859</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1333.11</v>
@@ -10072,10 +9063,10 @@
         <v>28823</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>121040</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4.1994</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>121040</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -10090,10 +9081,10 @@
         <v>28423</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>127055</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4.4701</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>127055</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -10108,10 +9099,10 @@
         <v>27063</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>117995</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4.36</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>117995</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -10126,10 +9117,10 @@
         <v>29556</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>92864</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3.142</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>92864</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -10144,10 +9135,10 @@
         <v>20223</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>81778</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>4.0438</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>81778</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -10162,10 +9153,10 @@
         <v>19971</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>81552</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4.0835</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>81552</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -10180,10 +9171,10 @@
         <v>20604</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>56391</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.7369</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>56391</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -10198,10 +9189,10 @@
         <v>17025</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>52539</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3.086</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>52539</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -10216,10 +9207,10 @@
         <v>17763</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>65482</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3.6864</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>65482</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -10234,10 +9225,10 @@
         <v>14169</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>56835</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4.0112</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>56835</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -10252,10 +9243,10 @@
         <v>13253</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>42941</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3.2401</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>42941</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -10270,10 +9261,10 @@
         <v>13417</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>44874</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3.3446</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>44874</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -10288,10 +9279,10 @@
         <v>12916</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>44818</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3.47</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>44818</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -10306,10 +9297,10 @@
         <v>12587</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>39727</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3.1562</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>39727</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10324,10 +9315,10 @@
         <v>12609</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>43195</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3.4257</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>43195</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10342,10 +9333,10 @@
         <v>12775</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3.5104</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>44845</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10360,10 +9351,10 @@
         <v>12676</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>40347</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3.1829</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>40347</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10378,10 +9369,10 @@
         <v>12470</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>35760</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.8677</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>35760</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10396,10 +9387,10 @@
         <v>12140</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>40420</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3.3295</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>40420</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10414,10 +9405,10 @@
         <v>10320</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>30228</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.9291</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>30228</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10432,10 +9423,10 @@
         <v>9977</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>32457</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3.2532</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>32457</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10450,10 +9441,10 @@
         <v>10171</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>28148</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.7675</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>28148</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10468,10 +9459,10 @@
         <v>11006</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>31650</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.8757</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>31650</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10486,10 +9477,10 @@
         <v>10762</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>28457</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.6442</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>28457</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -10504,10 +9495,10 @@
         <v>10100</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>4.3487</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>43922</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -10522,10 +9513,10 @@
         <v>10100</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>43421</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4.2991</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>43421</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -10540,10 +9531,10 @@
         <v>10100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>17131</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.6961</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>17131</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -10558,10 +9549,10 @@
         <v>10100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>32198</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3.1879</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>32198</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -10576,10 +9567,10 @@
         <v>9098</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>37916</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.1675</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>37916</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -10594,10 +9585,10 @@
         <v>8900</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>29550</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3.3202</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>29550</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -10612,10 +9603,10 @@
         <v>8900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>29304</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3.2926</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>29304</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -10630,10 +9621,10 @@
         <v>8900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>29854</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3.3544</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>29854</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -10648,10 +9639,10 @@
         <v>8900</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>24924</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.8004</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>24924</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -10666,10 +9657,10 @@
         <v>9001</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19507</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2.1672</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19507</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -10684,10 +9675,10 @@
         <v>8000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>24650</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3.0813</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>24650</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -10702,10 +9693,10 @@
         <v>8000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>24087</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3.0109</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>24087</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -10720,10 +9711,10 @@
         <v>7533</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>20632</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.7389</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>20632</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -10738,10 +9729,10 @@
         <v>7899</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18457</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.3366</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18457</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -10756,10 +9747,10 @@
         <v>6879</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>24951</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.6271</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>24951</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -10774,10 +9765,10 @@
         <v>6169</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17939</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.9079</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17939</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -10792,10 +9783,10 @@
         <v>6007</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>19133</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3.1851</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>19133</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -10810,10 +9801,10 @@
         <v>5850</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12144</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.0759</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12144</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -10828,10 +9819,10 @@
         <v>5805</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11329</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.9516</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11329</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -10846,10 +9837,10 @@
         <v>5417</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11044</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.0388</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11044</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -10864,10 +9855,10 @@
         <v>5412</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.2727</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12300</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -10882,10 +9873,10 @@
         <v>4895</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.8386</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -10900,10 +9891,10 @@
         <v>4848</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12800</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.6403</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12800</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -10917,10 +9908,10 @@
         <v>4711</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.6557</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7800</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -10934,10 +9925,10 @@
         <v>4576</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.2893</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5900</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -10950,10 +9941,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>8300</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
       <c r="H71" s="29" t="n"/>
@@ -10965,10 +9956,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>5200</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
       <c r="H72" s="29" t="n"/>
@@ -10980,10 +9971,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>4700</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
       <c r="H73" s="29" t="n"/>
@@ -10995,10 +9986,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>4800</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
       <c r="H74" s="29" t="n"/>
@@ -11329,7 +10320,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11408,10 +10399,10 @@
         <v>5989</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>62640</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>10.4592</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>62640</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>245014.67</v>
@@ -11430,10 +10421,10 @@
         <v>6354</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>73070</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11.4998</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>73070</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>256031.75</v>
@@ -11452,10 +10443,10 @@
         <v>6232</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>74250</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.9143</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>74250</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>231621.78</v>
@@ -11474,10 +10465,10 @@
         <v>6840</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>100700</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14.7222</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>100700</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>207499.26</v>
@@ -11496,10 +10487,10 @@
         <v>6760</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>97250.23</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14.3861</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>97250.23</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>170258.24</v>
@@ -11518,10 +10509,10 @@
         <v>6840</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>99250</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>14.5102</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>99250</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>181582.69</v>
@@ -11540,10 +10531,10 @@
         <v>8080</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>102840</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>12.7277</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>102840</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>162009.47</v>
@@ -11562,10 +10553,10 @@
         <v>8017</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>117177</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>14.6161</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>117177</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>134934.84</v>
@@ -11584,10 +10575,10 @@
         <v>8223</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>119295</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>14.5075</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>119295</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>146417.6</v>
@@ -11606,10 +10597,10 @@
         <v>7912</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>103510</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13.0827</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>103510</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>108275.62</v>
@@ -11628,10 +10619,10 @@
         <v>7527</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>83280</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>11.0642</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>83280</v>
       </c>
       <c r="F22" s="29" t="inlineStr"/>
       <c r="G22" s="29" t="inlineStr"/>
@@ -11646,10 +10637,10 @@
         <v>7042</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>76498</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>10.8631</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>76498</v>
       </c>
       <c r="F23" s="29" t="inlineStr"/>
       <c r="G23" s="29" t="inlineStr"/>
@@ -11664,10 +10655,10 @@
         <v>7082</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>85516</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>12.0751</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>85516</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -11682,10 +10673,10 @@
         <v>7122</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>67531</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.481999999999999</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>67531</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -11700,10 +10691,10 @@
         <v>7163</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>89689</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>12.5212</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>89689</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -11718,10 +10709,10 @@
         <v>7284</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>67843</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.314</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>67843</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -11736,10 +10727,10 @@
         <v>6515</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>64659</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9.9246</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>64659</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -11754,10 +10745,10 @@
         <v>6718</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>74843</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>11.1407</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>74843</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -11772,10 +10763,10 @@
         <v>6840</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>82798</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12.105</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>82798</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -11790,10 +10781,10 @@
         <v>6515</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>71885</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>11.0338</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>71885</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -11808,10 +10799,10 @@
         <v>6192</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>62051</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>10.0212</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>62051</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -11826,10 +10817,10 @@
         <v>6192</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>51637</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.3393</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>51637</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -11844,10 +10835,10 @@
         <v>6192</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>51964</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.392100000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>51964</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -11862,10 +10853,10 @@
         <v>6212</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>48965</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7.8823</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>48965</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -11880,10 +10871,10 @@
         <v>6232</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>49011</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7.8644</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>49011</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -11898,10 +10889,10 @@
         <v>6095</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>42728</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.0103</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>42728</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -11916,10 +10907,10 @@
         <v>6030</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>45541</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.5524</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>45541</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -11934,10 +10925,10 @@
         <v>5241</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>32772</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.253</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>32772</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -11952,10 +10943,10 @@
         <v>5261</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>40374</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.6742</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>40374</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -11970,10 +10961,10 @@
         <v>5079</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>42429</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.3538</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>42429</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -11988,10 +10979,10 @@
         <v>4816</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>40206</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.3484</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>40206</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -12006,10 +10997,10 @@
         <v>4856</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>41794</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.6067</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>41794</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -12024,10 +11015,10 @@
         <v>4210</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5.4632</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>23000</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -12042,10 +11033,10 @@
         <v>4450</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23650</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>5.3146</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23650</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -12060,10 +11051,10 @@
         <v>3880</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>25710</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.626300000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>25710</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -12078,10 +11069,10 @@
         <v>3760</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>21797</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.7971</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>21797</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -12096,10 +11087,10 @@
         <v>3620</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>22226</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.1398</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>22226</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -12114,10 +11105,10 @@
         <v>3260</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13140</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.0307</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13140</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -12132,10 +11123,10 @@
         <v>3010</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14285</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.7458</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14285</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -12150,10 +11141,10 @@
         <v>2870</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15075</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5.2526</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15075</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -12168,10 +11159,10 @@
         <v>2820</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15608</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.534800000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15608</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -12186,10 +11177,10 @@
         <v>2920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15456</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5.2932</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15456</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -12204,10 +11195,10 @@
         <v>2720</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13400</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.9265</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13400</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -12222,10 +11213,10 @@
         <v>2720</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.4118</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>12000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -12240,10 +11231,10 @@
         <v>2400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11660</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.8583</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11660</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -12258,10 +11249,10 @@
         <v>2360</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11402</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.831399999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11402</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -12276,10 +11267,10 @@
         <v>2430</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12687</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.221</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12687</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -12294,10 +11285,10 @@
         <v>2510</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11763</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4.6865</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11763</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -12312,10 +11303,10 @@
         <v>2650</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13190</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.977399999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13190</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -12330,10 +11321,10 @@
         <v>2730</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12356</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.526</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12356</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -12348,10 +11339,10 @@
         <v>2720</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11980</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4.4044</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11980</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -12366,10 +11357,10 @@
         <v>2970</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11230</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3.7811</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11230</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -12384,10 +11375,10 @@
         <v>3380</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12837</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3.7979</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12837</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -12402,10 +11393,10 @@
         <v>3500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13457</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3.8449</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13457</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -12420,10 +11411,10 @@
         <v>3550</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17877</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.0358</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>17877</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -12438,10 +11429,10 @@
         <v>3660</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13608</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.718</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13608</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -12456,10 +11447,10 @@
         <v>4170</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18086</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.3372</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>18086</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -12473,10 +11464,10 @@
         <v>4290</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>19520</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.5501</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>19520</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -12490,10 +11481,10 @@
         <v>4270</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17083</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4.0007</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17083</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -12507,10 +11498,10 @@
         <v>3420</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4.6871</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16030</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -12524,10 +11515,10 @@
         <v>3120</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>16748</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.3679</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>16748</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -12541,10 +11532,10 @@
         <v>3120</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13657</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4.3772</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13657</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -12558,10 +11549,10 @@
         <v>3350</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12836</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3.8316</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12836</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
